--- a/data/Rekap-Sidang-TA.xlsx
+++ b/data/Rekap-Sidang-TA.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,50 +588,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>1301164208</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>DARYANNOR IBNU SINA</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Penerapan Open Information Extraction Untuk Question Answering System Berbasis Bahasa Indonesia</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1301150072</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MUHAMAD HAFIZH FAJAR PERDANA</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Identifikasi Etnis Indonesia Berdasarkan Citra Wajah Menggunakan Convolutional Neural Network (CNN)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
